--- a/admin/db_test.xlsx
+++ b/admin/db_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\intern\db\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeanM\Desktop\PolicyReader\Flask-Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275334E1-F655-49C5-B614-FDAF4F85B5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A4E70-AFE2-454F-B6AD-03B273F50EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{829F2EBB-F664-4EC3-AD6B-DB936A98CFBD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>publish_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>&lt; a href="https://www.baidu.com"&gt; 原文 &lt;/ a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97277ABF-0AD8-44E9-91FE-D0C7A5547925}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -720,7 +724,7 @@
     <col min="6" max="6" width="16.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -763,8 +767,11 @@
       <c r="N1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -796,7 +803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -825,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -854,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -883,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -912,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -941,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -970,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1057,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1144,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
